--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw.sharepoint.com/sites/CSEResearchCapstoneProjectTeam/Shared Documents/General/P20 Space allocation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huoyingzhe/Documents/master课程/comp9900/project/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{1581CA87-5E04-409C-92DB-B51ACF4B6982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2988245D-FD08-4D70-8BA9-E42A6AC44FDD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6513912D-05C1-5F45-A78A-DBB54E3D4AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6200" yWindow="760" windowWidth="19420" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDR students" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="282">
   <si>
     <t>No</t>
   </si>
@@ -877,13 +875,25 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>z5405325</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yingzhe Huo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2823935264@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -909,6 +919,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -925,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -948,11 +965,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -965,9 +993,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,10 +1010,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,26 +1329,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1418,7 +1445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1449,7 +1476,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1480,7 +1507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1511,7 +1538,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1542,7 +1569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1573,7 +1600,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1604,7 +1631,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1666,7 +1693,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1697,7 +1724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1792,7 +1819,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1856,7 +1883,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1949,7 +1976,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1980,7 +2007,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2011,7 +2038,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2042,7 +2069,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2073,7 +2100,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2104,7 +2131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2135,7 +2162,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2166,7 +2193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2230,7 +2257,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2263,7 +2290,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2294,7 +2321,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2325,7 +2352,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2356,7 +2383,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2387,7 +2414,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2418,7 +2445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2449,7 +2476,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2480,7 +2507,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2511,7 +2538,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="16">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="16">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2573,7 +2600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2604,7 +2631,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="16">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2635,7 +2662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="16">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2666,7 +2693,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="16">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5393,7 +5420,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" ht="16">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5424,7 +5451,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" ht="16">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5455,7 +5482,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" ht="16">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5486,7 +5513,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" ht="16">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5517,7 +5544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" ht="16">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5548,7 +5575,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" ht="16">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5579,7 +5606,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" ht="16">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5610,7 +5637,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="16">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5641,7 +5668,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" ht="16">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5672,7 +5699,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" ht="16">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5703,7 +5730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" ht="16">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5736,7 +5763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" ht="16">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5767,7 +5794,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" ht="16">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5798,7 +5825,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" ht="16">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5829,7 +5856,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" ht="16">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5860,7 +5887,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" ht="16">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5891,7 +5918,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" ht="16">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5922,7 +5949,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" ht="16">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5953,7 +5980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" ht="16">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5984,7 +6011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" ht="16">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -6017,7 +6044,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" ht="16">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -6050,7 +6077,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" ht="16">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -6081,7 +6108,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" ht="16">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -6112,7 +6139,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" ht="16">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -6143,7 +6170,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" ht="16">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -6174,7 +6201,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" ht="16">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -6205,7 +6232,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" ht="16">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -6236,7 +6263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" ht="16">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -6267,7 +6294,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" ht="16">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -6298,7 +6325,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" ht="16">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -6329,7 +6356,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" ht="16">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -6360,7 +6387,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" ht="16">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6391,7 +6418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" ht="16">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8554,8 +8581,38 @@
         <v>258</v>
       </c>
     </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="10">
+        <v>231</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J232">
+        <v>12345678</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8565,19 +8622,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83924A23-4B1B-4338-8CC3-494AF509AA8C}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8609,7 +8666,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8642,7 +8699,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8675,7 +8732,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8708,7 +8765,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8741,7 +8798,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8774,7 +8831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8807,7 +8864,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8840,7 +8897,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8873,7 +8930,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8906,7 +8963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8939,7 +8996,7 @@
         <v>12344</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8972,7 +9029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9005,7 +9062,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -9038,7 +9095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -9071,7 +9128,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9104,7 +9161,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9137,7 +9194,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9170,7 +9227,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9203,7 +9260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9236,7 +9293,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9269,7 +9326,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -9302,7 +9359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -9335,7 +9392,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -9368,7 +9425,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -9401,7 +9458,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9434,7 +9491,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9467,7 +9524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -9500,7 +9557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -9533,7 +9590,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -9566,7 +9623,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -9599,7 +9656,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10259,7 +10316,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="16">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -10292,7 +10349,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="16">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -10325,7 +10382,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="16">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -10596,11 +10653,27 @@
       <c r="J63" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000A1270F49B98C47B41F4E83EABAB468" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ebcb51eda6402163c78083195fbaa6e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef634f75-7ef1-4762-9940-3b2ba986aa85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f144c3548e56fc59a6c917a0f26c76ee" ns2:_="">
     <xsd:import namespace="ef634f75-7ef1-4762-9940-3b2ba986aa85"/>
@@ -10768,23 +10841,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6F3A05-A9B1-497C-9611-AADF919BD377}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408A628F-76DB-4302-B0EF-441506E80152}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10799,9 +10861,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408A628F-76DB-4302-B0EF-441506E80152}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6F3A05-A9B1-497C-9611-AADF919BD377}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef634f75-7ef1-4762-9940-3b2ba986aa85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -11,14 +11,14 @@
     <sheet name="CSE staff" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
   <si>
     <t>No</t>
   </si>
@@ -575,6 +575,78 @@
     <t>a</t>
   </si>
   <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>z5</t>
+  </si>
+  <si>
+    <t>z6</t>
+  </si>
+  <si>
+    <t>z7</t>
+  </si>
+  <si>
+    <t>z8</t>
+  </si>
+  <si>
+    <t>z9</t>
+  </si>
+  <si>
+    <t>z10</t>
+  </si>
+  <si>
+    <t>z11</t>
+  </si>
+  <si>
+    <t>z12</t>
+  </si>
+  <si>
+    <t>z13</t>
+  </si>
+  <si>
+    <t>z14</t>
+  </si>
+  <si>
+    <t>z15</t>
+  </si>
+  <si>
+    <t>z16</t>
+  </si>
+  <si>
+    <t>z17</t>
+  </si>
+  <si>
+    <t>z18</t>
+  </si>
+  <si>
+    <t>z19</t>
+  </si>
+  <si>
+    <t>z20</t>
+  </si>
+  <si>
+    <t>z21</t>
+  </si>
+  <si>
+    <t>z22</t>
+  </si>
+  <si>
+    <t>z23</t>
+  </si>
+  <si>
+    <t>z24</t>
+  </si>
+  <si>
+    <t>z25</t>
+  </si>
+  <si>
     <t>Staff z ID</t>
   </si>
   <si>
@@ -876,9 +948,6 @@
   </si>
   <si>
     <t>Mech</t>
-  </si>
-  <si>
-    <t>z2</t>
   </si>
   <si>
     <t>Iding</t>
@@ -901,12 +970,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -914,11 +983,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -937,7 +1001,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,15 +1036,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -973,9 +1052,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,6 +1063,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,7 +1085,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1014,14 +1101,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,20 +1122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,17 +1130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,13 +1145,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,13 +1166,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,19 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,19 +1238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,13 +1262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,13 +1286,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,61 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,6 +1383,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1336,6 +1403,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,30 +1469,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1404,166 +1477,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,14 +1630,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1921,10 +1979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C235" sqref="I234 C235"/>
+    <sheetView tabSelected="1" topLeftCell="E231" workbookViewId="0">
+      <selection activeCell="J246" sqref="J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
@@ -9231,8 +9289,704 @@
         <v>184</v>
       </c>
     </row>
+    <row r="234" spans="1:10">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>185</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>186</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>187</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>188</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>189</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>190</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>192</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>193</v>
+      </c>
+      <c r="C242">
+        <v>9</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>194</v>
+      </c>
+      <c r="C243">
+        <v>10</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>195</v>
+      </c>
+      <c r="C244">
+        <v>11</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>196</v>
+      </c>
+      <c r="C245">
+        <v>12</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>197</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>198</v>
+      </c>
+      <c r="C247">
+        <v>14</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>199</v>
+      </c>
+      <c r="C248">
+        <v>15</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>200</v>
+      </c>
+      <c r="C249">
+        <v>16</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>201</v>
+      </c>
+      <c r="C250">
+        <v>17</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>202</v>
+      </c>
+      <c r="C251">
+        <v>18</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>203</v>
+      </c>
+      <c r="C252">
+        <v>19</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253">
+        <v>20</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>205</v>
+      </c>
+      <c r="C254">
+        <v>21</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>206</v>
+      </c>
+      <c r="C255">
+        <v>22</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256">
+        <v>23</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257">
+        <v>24</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H232"/>
+  <autoFilter ref="A1:H233"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -9262,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9280,10 +10034,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
@@ -9294,29 +10048,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>C2&amp;"@"&amp;D2</f>
         <v>aooif@unsw.edu.au</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>51</v>
@@ -9327,29 +10081,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E61" si="0">C3&amp;"@"&amp;D3</f>
         <v>hyhsy@unsw.edu.au</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>52</v>
@@ -9360,29 +10114,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tjfxr@unsw.edu.au</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>53</v>
@@ -9393,29 +10147,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tzoyy@unsw.edu.au</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>54</v>
@@ -9426,29 +10180,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>kjkkx@unsw.edu.au</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>55</v>
@@ -9459,29 +10213,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>trgje@unsw.edu.au</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>56</v>
@@ -9492,29 +10246,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mzzpu@unsw.edu.au</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>57</v>
@@ -9525,29 +10279,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ytsce@unsw.edu.au</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>58</v>
@@ -9558,29 +10312,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jluty@unsw.edu.au</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>59</v>
@@ -9591,29 +10345,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jfvyy@unsw.edu.au</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J11" s="6">
         <v>12344</v>
@@ -9624,29 +10378,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjqxo@unsw.edu.au</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>61</v>
@@ -9657,29 +10411,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>vkmlm@unsw.edu.au</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>63</v>
@@ -9690,29 +10444,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jgxuq@unsw.edu.au</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>64</v>
@@ -9723,29 +10477,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dbpvo@unsw.edu.au</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>65</v>
@@ -9756,29 +10510,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ogari@unsw.edu.au</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>66</v>
@@ -9789,29 +10543,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>croav@unsw.edu.au</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>67</v>
@@ -9822,29 +10576,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjmmj@unsw.edu.au</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>68</v>
@@ -9855,29 +10609,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>abvgn@unsw.edu.au</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>69</v>
@@ -9888,29 +10642,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lpgyy@unsw.edu.au</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>71</v>
@@ -9921,29 +10675,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ygjby@unsw.edu.au</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>73</v>
@@ -9954,29 +10708,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xqaqw@unsw.edu.au</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>74</v>
@@ -9987,29 +10741,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lkiki@unsw.edu.au</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>75</v>
@@ -10020,29 +10774,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>psml@unsw.edu.au</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>77</v>
@@ -10053,29 +10807,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zesqr@unsw.edu.au</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>79</v>
@@ -10086,29 +10840,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>qwjgy@unsw.edu.au</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>80</v>
@@ -10119,29 +10873,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>bvljb@unsw.edu.au</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>81</v>
@@ -10152,29 +10906,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>rjpju@unsw.edu.au</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>82</v>
@@ -10185,29 +10939,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>liqqz@unsw.edu.au</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>83</v>
@@ -10218,29 +10972,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gmfzg@unsw.edu.au</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>84</v>
@@ -10251,29 +11005,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>achdi@unsw.edu.au</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>85</v>
@@ -10284,29 +11038,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>aowom@unsw.edu.au</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>86</v>
@@ -10317,29 +11071,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>vsxla@unsw.edu.au</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>87</v>
@@ -10350,29 +11104,29 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>pczae@unsw.edu.au</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>88</v>
@@ -10383,29 +11137,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zgwrl@unsw.edu.au</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>89</v>
@@ -10416,29 +11170,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>uwnoi@unsw.edu.au</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>90</v>
@@ -10449,29 +11203,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ofjzr@unsw.edu.au</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>92</v>
@@ -10482,29 +11236,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dcrkv@unsw.edu.au</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>94</v>
@@ -10515,29 +11269,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jnsrf@unsw.edu.au</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>95</v>
@@ -10548,29 +11302,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mqrci@unsw.edu.au</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>97</v>
@@ -10581,29 +11335,29 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>whjat@unsw.edu.au</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>99</v>
@@ -10614,29 +11368,29 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>oshgy@unsw.edu.au</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>100</v>
@@ -10647,29 +11401,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ggeqk@unsw.edu.au</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>101</v>
@@ -10680,29 +11434,29 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ncxdi@unsw.edu.au</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>102</v>
@@ -10713,29 +11467,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fjujf@unsw.edu.au</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>103</v>
@@ -10746,29 +11500,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dfddd@unsw.edu.au</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>104</v>
@@ -10779,29 +11533,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gftyu@unsw.edu.au</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>105</v>
@@ -10812,29 +11566,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsf ss@unsw.edu.au</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>106</v>
@@ -10845,29 +11599,29 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsfsfs@unsw.edu.au</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>108</v>
@@ -10878,29 +11632,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>eydzs s@unsw.edu.au</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>110</v>
@@ -10911,29 +11665,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dtyd @unsw.edu.au</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>111</v>
@@ -10944,29 +11698,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfd ss@unsw.edu.au</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>84</v>
@@ -10977,29 +11731,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdy rea@unsw.edu.au</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>85</v>
@@ -11010,29 +11764,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>kiuns@unsw.edu.au</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>86</v>
@@ -11043,29 +11797,29 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mxivj @unsw.edu.au</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>87</v>
@@ -11076,29 +11830,29 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>m  hs@unsw.edu.au</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>88</v>
@@ -11109,29 +11863,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>s ffdg@unsw.edu.au</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>89</v>
@@ -11142,29 +11896,29 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfffs@unsw.edu.au</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>90</v>
@@ -11175,29 +11929,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>d dg dh@unsw.edu.au</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>92</v>
@@ -11208,29 +11962,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdgds@unsw.edu.au</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>94</v>
@@ -11241,29 +11995,29 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ddbgf yb@unsw.edu.au</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>95</v>
@@ -11274,31 +12028,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -11306,28 +12060,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J63" s="7">
         <v>12345678</v>

--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -11,14 +11,14 @@
     <sheet name="CSE staff" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$257</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
   <si>
     <t>No</t>
   </si>
@@ -575,379 +575,310 @@
     <t>a</t>
   </si>
   <si>
+    <t>Staff z ID</t>
+  </si>
+  <si>
+    <t>Staff Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>z17887</t>
+  </si>
+  <si>
+    <t>aooif</t>
+  </si>
+  <si>
+    <t>unsw.edu.au</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>A/Prof</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>z44293</t>
+  </si>
+  <si>
+    <t>hyhsy</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>z54322</t>
+  </si>
+  <si>
+    <t>tjfxr</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>z54437</t>
+  </si>
+  <si>
+    <t>tzoyy</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>z47478</t>
+  </si>
+  <si>
+    <t>kjkkx</t>
+  </si>
+  <si>
+    <t>z97732</t>
+  </si>
+  <si>
+    <t>trgje</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>z55294</t>
+  </si>
+  <si>
+    <t>mzzpu</t>
+  </si>
+  <si>
+    <t>z40039</t>
+  </si>
+  <si>
+    <t>ytsce</t>
+  </si>
+  <si>
+    <t>z19077</t>
+  </si>
+  <si>
+    <t>jluty</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>z96765</t>
+  </si>
+  <si>
+    <t>jfvyy</t>
+  </si>
+  <si>
+    <t>z22571</t>
+  </si>
+  <si>
+    <t>xjqxo</t>
+  </si>
+  <si>
+    <t>z57459</t>
+  </si>
+  <si>
+    <t>vkmlm</t>
+  </si>
+  <si>
+    <t>z30559</t>
+  </si>
+  <si>
+    <t>jgxuq</t>
+  </si>
+  <si>
+    <t>z65338</t>
+  </si>
+  <si>
+    <t>dbpvo</t>
+  </si>
+  <si>
+    <t>z32552</t>
+  </si>
+  <si>
+    <t>ogari</t>
+  </si>
+  <si>
+    <t>z3658</t>
+  </si>
+  <si>
+    <t>croav</t>
+  </si>
+  <si>
+    <t>xjmmj</t>
+  </si>
+  <si>
+    <t>abvgn</t>
+  </si>
+  <si>
+    <t>lpgyy</t>
+  </si>
+  <si>
+    <t>ygjby</t>
+  </si>
+  <si>
+    <t>xqaqw</t>
+  </si>
+  <si>
+    <t>lkiki</t>
+  </si>
+  <si>
+    <t>psml</t>
+  </si>
+  <si>
+    <t>zesqr</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>qwjgy</t>
+  </si>
+  <si>
+    <t>bvljb</t>
+  </si>
+  <si>
+    <t>rjpju</t>
+  </si>
+  <si>
+    <t>Adjunct Prof</t>
+  </si>
+  <si>
+    <t>liqqz</t>
+  </si>
+  <si>
+    <t>gmfzg</t>
+  </si>
+  <si>
+    <t>achdi</t>
+  </si>
+  <si>
+    <t>z25993</t>
+  </si>
+  <si>
+    <t>aowom</t>
+  </si>
+  <si>
+    <t>z33652</t>
+  </si>
+  <si>
+    <t>vsxla</t>
+  </si>
+  <si>
+    <t>pczae</t>
+  </si>
+  <si>
+    <t>zgwrl</t>
+  </si>
+  <si>
+    <t>uwnoi</t>
+  </si>
+  <si>
+    <t>ofjzr</t>
+  </si>
+  <si>
+    <t>dcrkv</t>
+  </si>
+  <si>
+    <t>jnsrf</t>
+  </si>
+  <si>
+    <t>Assistant Prof</t>
+  </si>
+  <si>
+    <t>mqrci</t>
+  </si>
+  <si>
+    <t>whjat</t>
+  </si>
+  <si>
+    <t>oshgy</t>
+  </si>
+  <si>
+    <t>ggeqk</t>
+  </si>
+  <si>
+    <t>ncxdi</t>
+  </si>
+  <si>
+    <t>fjujf</t>
+  </si>
+  <si>
+    <t>dfddd</t>
+  </si>
+  <si>
+    <t>gftyu</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>z25263</t>
+  </si>
+  <si>
+    <t>dsf ss</t>
+  </si>
+  <si>
+    <t>z98585</t>
+  </si>
+  <si>
+    <t>dsfsfs</t>
+  </si>
+  <si>
+    <t>eydzs s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtyd </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>fgfd ss</t>
+  </si>
+  <si>
+    <t>fdy rea</t>
+  </si>
+  <si>
+    <t>kiuns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mxivj </t>
+  </si>
+  <si>
+    <t>m  hs</t>
+  </si>
+  <si>
+    <t>s ffdg</t>
+  </si>
+  <si>
+    <t>fgfffs</t>
+  </si>
+  <si>
+    <t>d dg dh</t>
+  </si>
+  <si>
+    <t>fdgds</t>
+  </si>
+  <si>
+    <t>ddbgf yb</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
     <t>z2</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>z5</t>
-  </si>
-  <si>
-    <t>z6</t>
-  </si>
-  <si>
-    <t>z7</t>
-  </si>
-  <si>
-    <t>z8</t>
-  </si>
-  <si>
-    <t>z9</t>
-  </si>
-  <si>
-    <t>z10</t>
-  </si>
-  <si>
-    <t>z11</t>
-  </si>
-  <si>
-    <t>z12</t>
-  </si>
-  <si>
-    <t>z13</t>
-  </si>
-  <si>
-    <t>z14</t>
-  </si>
-  <si>
-    <t>z15</t>
-  </si>
-  <si>
-    <t>z16</t>
-  </si>
-  <si>
-    <t>z17</t>
-  </si>
-  <si>
-    <t>z18</t>
-  </si>
-  <si>
-    <t>z19</t>
-  </si>
-  <si>
-    <t>z20</t>
-  </si>
-  <si>
-    <t>z21</t>
-  </si>
-  <si>
-    <t>z22</t>
-  </si>
-  <si>
-    <t>z23</t>
-  </si>
-  <si>
-    <t>z24</t>
-  </si>
-  <si>
-    <t>z25</t>
-  </si>
-  <si>
-    <t>Staff z ID</t>
-  </si>
-  <si>
-    <t>Staff Name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>z17887</t>
-  </si>
-  <si>
-    <t>aooif</t>
-  </si>
-  <si>
-    <t>unsw.edu.au</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>A/Prof</t>
-  </si>
-  <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>z44293</t>
-  </si>
-  <si>
-    <t>hyhsy</t>
-  </si>
-  <si>
-    <t>Prof</t>
-  </si>
-  <si>
-    <t>z54322</t>
-  </si>
-  <si>
-    <t>tjfxr</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>z54437</t>
-  </si>
-  <si>
-    <t>tzoyy</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>z47478</t>
-  </si>
-  <si>
-    <t>kjkkx</t>
-  </si>
-  <si>
-    <t>z97732</t>
-  </si>
-  <si>
-    <t>trgje</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>z55294</t>
-  </si>
-  <si>
-    <t>mzzpu</t>
-  </si>
-  <si>
-    <t>z40039</t>
-  </si>
-  <si>
-    <t>ytsce</t>
-  </si>
-  <si>
-    <t>z19077</t>
-  </si>
-  <si>
-    <t>jluty</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>z96765</t>
-  </si>
-  <si>
-    <t>jfvyy</t>
-  </si>
-  <si>
-    <t>z22571</t>
-  </si>
-  <si>
-    <t>xjqxo</t>
-  </si>
-  <si>
-    <t>z57459</t>
-  </si>
-  <si>
-    <t>vkmlm</t>
-  </si>
-  <si>
-    <t>z30559</t>
-  </si>
-  <si>
-    <t>jgxuq</t>
-  </si>
-  <si>
-    <t>z65338</t>
-  </si>
-  <si>
-    <t>dbpvo</t>
-  </si>
-  <si>
-    <t>z32552</t>
-  </si>
-  <si>
-    <t>ogari</t>
-  </si>
-  <si>
-    <t>z3658</t>
-  </si>
-  <si>
-    <t>croav</t>
-  </si>
-  <si>
-    <t>xjmmj</t>
-  </si>
-  <si>
-    <t>abvgn</t>
-  </si>
-  <si>
-    <t>lpgyy</t>
-  </si>
-  <si>
-    <t>ygjby</t>
-  </si>
-  <si>
-    <t>xqaqw</t>
-  </si>
-  <si>
-    <t>lkiki</t>
-  </si>
-  <si>
-    <t>psml</t>
-  </si>
-  <si>
-    <t>zesqr</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>qwjgy</t>
-  </si>
-  <si>
-    <t>bvljb</t>
-  </si>
-  <si>
-    <t>rjpju</t>
-  </si>
-  <si>
-    <t>Adjunct Prof</t>
-  </si>
-  <si>
-    <t>liqqz</t>
-  </si>
-  <si>
-    <t>gmfzg</t>
-  </si>
-  <si>
-    <t>achdi</t>
-  </si>
-  <si>
-    <t>z25993</t>
-  </si>
-  <si>
-    <t>aowom</t>
-  </si>
-  <si>
-    <t>z33652</t>
-  </si>
-  <si>
-    <t>vsxla</t>
-  </si>
-  <si>
-    <t>pczae</t>
-  </si>
-  <si>
-    <t>zgwrl</t>
-  </si>
-  <si>
-    <t>uwnoi</t>
-  </si>
-  <si>
-    <t>ofjzr</t>
-  </si>
-  <si>
-    <t>dcrkv</t>
-  </si>
-  <si>
-    <t>jnsrf</t>
-  </si>
-  <si>
-    <t>Assistant Prof</t>
-  </si>
-  <si>
-    <t>mqrci</t>
-  </si>
-  <si>
-    <t>whjat</t>
-  </si>
-  <si>
-    <t>oshgy</t>
-  </si>
-  <si>
-    <t>ggeqk</t>
-  </si>
-  <si>
-    <t>ncxdi</t>
-  </si>
-  <si>
-    <t>fjujf</t>
-  </si>
-  <si>
-    <t>dfddd</t>
-  </si>
-  <si>
-    <t>gftyu</t>
-  </si>
-  <si>
-    <t>Electrical</t>
-  </si>
-  <si>
-    <t>z25263</t>
-  </si>
-  <si>
-    <t>dsf ss</t>
-  </si>
-  <si>
-    <t>z98585</t>
-  </si>
-  <si>
-    <t>dsfsfs</t>
-  </si>
-  <si>
-    <t>eydzs s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtyd </t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>fgfd ss</t>
-  </si>
-  <si>
-    <t>fdy rea</t>
-  </si>
-  <si>
-    <t>kiuns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mxivj </t>
-  </si>
-  <si>
-    <t>m  hs</t>
-  </si>
-  <si>
-    <t>s ffdg</t>
-  </si>
-  <si>
-    <t>fgfffs</t>
-  </si>
-  <si>
-    <t>d dg dh</t>
-  </si>
-  <si>
-    <t>fdgds</t>
-  </si>
-  <si>
-    <t>ddbgf yb</t>
-  </si>
-  <si>
-    <t>Mech</t>
   </si>
   <si>
     <t>Iding</t>
@@ -970,10 +901,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1007,6 +938,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1014,11 +961,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,7 +983,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1045,7 +1007,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1060,38 +1022,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1101,22 +1031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,7 +1046,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,10 +1074,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1166,19 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1151,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,25 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,19 +1223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,49 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,15 +1324,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1418,6 +1340,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,21 +1389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1477,148 +1399,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1981,8 +1912,8 @@
   <sheetPr/>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E231" workbookViewId="0">
-      <selection activeCell="J246" sqref="J246"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
@@ -9289,704 +9220,176 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>185</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E234" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>186</v>
-      </c>
-      <c r="C235">
-        <v>2</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>187</v>
-      </c>
-      <c r="C236">
-        <v>3</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>188</v>
-      </c>
-      <c r="C237">
-        <v>4</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H237" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>189</v>
-      </c>
-      <c r="C238">
-        <v>5</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H238" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>190</v>
-      </c>
-      <c r="C239">
-        <v>6</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>191</v>
-      </c>
-      <c r="C240">
-        <v>7</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H240" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>192</v>
-      </c>
-      <c r="C241">
-        <v>8</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>193</v>
-      </c>
-      <c r="C242">
-        <v>9</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E242" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>194</v>
-      </c>
-      <c r="C243">
-        <v>10</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>195</v>
-      </c>
-      <c r="C244">
-        <v>11</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>196</v>
-      </c>
-      <c r="C245">
-        <v>12</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>197</v>
-      </c>
-      <c r="C246">
-        <v>13</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>198</v>
-      </c>
-      <c r="C247">
-        <v>14</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E247" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
-      <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>199</v>
-      </c>
-      <c r="C248">
-        <v>15</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>200</v>
-      </c>
-      <c r="C249">
-        <v>16</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E249" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>201</v>
-      </c>
-      <c r="C250">
-        <v>17</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>202</v>
-      </c>
-      <c r="C251">
-        <v>18</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>203</v>
-      </c>
-      <c r="C252">
-        <v>19</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253">
-        <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>204</v>
-      </c>
-      <c r="C253">
-        <v>20</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H253" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>205</v>
-      </c>
-      <c r="C254">
-        <v>21</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>206</v>
-      </c>
-      <c r="C255">
-        <v>22</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256">
-        <v>255</v>
-      </c>
-      <c r="B256" t="s">
-        <v>207</v>
-      </c>
-      <c r="C256">
-        <v>23</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>208</v>
-      </c>
-      <c r="C257">
-        <v>24</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J257">
-        <v>1</v>
-      </c>
+    <row r="234" spans="4:8">
+      <c r="D234" s="4"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="4:8">
+      <c r="D235" s="4"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="4:8">
+      <c r="D236" s="4"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="4:8">
+      <c r="D237" s="4"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="4:8">
+      <c r="D238" s="4"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="4:8">
+      <c r="D239" s="4"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="4:8">
+      <c r="D240" s="4"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="4:8">
+      <c r="D241" s="4"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="4:8">
+      <c r="D242" s="4"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="4:8">
+      <c r="D243" s="4"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="4:8">
+      <c r="D244" s="4"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="4:8">
+      <c r="D245" s="4"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="4:8">
+      <c r="D246" s="4"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="4:8">
+      <c r="D247" s="4"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="4:8">
+      <c r="D248" s="4"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="4:8">
+      <c r="D249" s="4"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="4:8">
+      <c r="D250" s="4"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="4:8">
+      <c r="D251" s="4"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="4:8">
+      <c r="D252" s="4"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="4:8">
+      <c r="D253" s="4"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="4:8">
+      <c r="D254" s="4"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="4:8">
+      <c r="D255" s="4"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="4:8">
+      <c r="D256" s="4"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="4:8">
+      <c r="D257" s="4"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H233"/>
+  <autoFilter ref="A1:H257"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -9998,8 +9401,8 @@
   <sheetPr/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
@@ -10016,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -10034,10 +9437,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
@@ -10048,29 +9451,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>C2&amp;"@"&amp;D2</f>
         <v>aooif@unsw.edu.au</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>51</v>
@@ -10081,29 +9484,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E61" si="0">C3&amp;"@"&amp;D3</f>
         <v>hyhsy@unsw.edu.au</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>52</v>
@@ -10114,29 +9517,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tjfxr@unsw.edu.au</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>53</v>
@@ -10147,29 +9550,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tzoyy@unsw.edu.au</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>54</v>
@@ -10180,29 +9583,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>kjkkx@unsw.edu.au</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>55</v>
@@ -10213,29 +9616,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>trgje@unsw.edu.au</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>56</v>
@@ -10246,29 +9649,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mzzpu@unsw.edu.au</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>57</v>
@@ -10279,29 +9682,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ytsce@unsw.edu.au</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>58</v>
@@ -10312,29 +9715,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jluty@unsw.edu.au</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>59</v>
@@ -10345,29 +9748,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jfvyy@unsw.edu.au</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="J11" s="6">
         <v>12344</v>
@@ -10378,29 +9781,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjqxo@unsw.edu.au</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>61</v>
@@ -10411,29 +9814,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>vkmlm@unsw.edu.au</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>63</v>
@@ -10444,29 +9847,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jgxuq@unsw.edu.au</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>64</v>
@@ -10477,29 +9880,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dbpvo@unsw.edu.au</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>65</v>
@@ -10510,29 +9913,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ogari@unsw.edu.au</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>66</v>
@@ -10543,29 +9946,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>croav@unsw.edu.au</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>67</v>
@@ -10576,29 +9979,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjmmj@unsw.edu.au</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>68</v>
@@ -10609,29 +10012,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>abvgn@unsw.edu.au</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>69</v>
@@ -10642,29 +10045,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lpgyy@unsw.edu.au</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>71</v>
@@ -10675,29 +10078,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ygjby@unsw.edu.au</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>73</v>
@@ -10708,29 +10111,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xqaqw@unsw.edu.au</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>74</v>
@@ -10741,29 +10144,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lkiki@unsw.edu.au</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>75</v>
@@ -10774,29 +10177,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>psml@unsw.edu.au</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>77</v>
@@ -10807,29 +10210,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zesqr@unsw.edu.au</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>79</v>
@@ -10840,29 +10243,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>qwjgy@unsw.edu.au</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>80</v>
@@ -10873,29 +10276,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>bvljb@unsw.edu.au</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>81</v>
@@ -10906,29 +10309,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>rjpju@unsw.edu.au</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>rjpju@unsw.edu.au</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>82</v>
@@ -10939,29 +10342,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>liqqz@unsw.edu.au</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>83</v>
@@ -10972,29 +10375,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gmfzg@unsw.edu.au</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>84</v>
@@ -11005,29 +10408,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>achdi@unsw.edu.au</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>85</v>
@@ -11038,29 +10441,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>aowom@unsw.edu.au</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>86</v>
@@ -11071,29 +10474,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>vsxla@unsw.edu.au</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>87</v>
@@ -11104,29 +10507,29 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>pczae@unsw.edu.au</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>88</v>
@@ -11137,29 +10540,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zgwrl@unsw.edu.au</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>89</v>
@@ -11170,29 +10573,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>uwnoi@unsw.edu.au</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>90</v>
@@ -11203,29 +10606,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ofjzr@unsw.edu.au</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>92</v>
@@ -11236,29 +10639,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dcrkv@unsw.edu.au</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>94</v>
@@ -11269,29 +10672,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jnsrf@unsw.edu.au</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>95</v>
@@ -11302,29 +10705,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mqrci@unsw.edu.au</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>97</v>
@@ -11335,29 +10738,29 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>whjat@unsw.edu.au</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>99</v>
@@ -11368,29 +10771,29 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>oshgy@unsw.edu.au</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>100</v>
@@ -11401,29 +10804,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ggeqk@unsw.edu.au</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>101</v>
@@ -11434,29 +10837,29 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ncxdi@unsw.edu.au</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>102</v>
@@ -11467,29 +10870,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fjujf@unsw.edu.au</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>103</v>
@@ -11500,29 +10903,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dfddd@unsw.edu.au</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>104</v>
@@ -11533,29 +10936,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gftyu@unsw.edu.au</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>105</v>
@@ -11566,29 +10969,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsf ss@unsw.edu.au</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>106</v>
@@ -11599,29 +11002,29 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsfsfs@unsw.edu.au</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>108</v>
@@ -11632,29 +11035,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>eydzs s@unsw.edu.au</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>110</v>
@@ -11665,29 +11068,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dtyd @unsw.edu.au</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>111</v>
@@ -11698,29 +11101,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfd ss@unsw.edu.au</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>84</v>
@@ -11731,29 +11134,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdy rea@unsw.edu.au</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>85</v>
@@ -11764,29 +11167,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>kiuns@unsw.edu.au</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>86</v>
@@ -11797,29 +11200,29 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mxivj @unsw.edu.au</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>87</v>
@@ -11830,29 +11233,29 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>m  hs@unsw.edu.au</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>88</v>
@@ -11863,29 +11266,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>s ffdg@unsw.edu.au</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>89</v>
@@ -11896,29 +11299,29 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfffs@unsw.edu.au</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>90</v>
@@ -11929,29 +11332,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>d dg dh@unsw.edu.au</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>92</v>
@@ -11962,29 +11365,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdgds@unsw.edu.au</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>94</v>
@@ -11995,29 +11398,29 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ddbgf yb@unsw.edu.au</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>95</v>
@@ -12028,31 +11431,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -12060,28 +11463,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J63" s="7">
         <v>12345678</v>

--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26080" windowHeight="13280"/>
+    <workbookView windowWidth="21652" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="HDR students" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$257</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -573,6 +586,42 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>miaou</t>
+  </si>
+  <si>
+    <t>929052333@qq.com</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>howie</t>
+  </si>
+  <si>
+    <t>1148037565@qq.com</t>
+  </si>
+  <si>
+    <t>z5</t>
+  </si>
+  <si>
+    <t>edward</t>
+  </si>
+  <si>
+    <t>1290232021@qq.com</t>
+  </si>
+  <si>
+    <t>z6</t>
+  </si>
+  <si>
+    <t>ziwen</t>
+  </si>
+  <si>
+    <t>zhengziwen0822@163.com</t>
   </si>
   <si>
     <t>Staff z ID</t>
@@ -899,12 +948,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -931,10 +980,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,14 +1042,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -969,77 +1104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,33 +1117,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1097,7 +1146,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,73 +1176,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,19 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,7 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,31 +1236,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,13 +1266,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,11 +1360,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,17 +1384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,6 +1440,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1399,164 +1457,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1571,57 +1620,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1908,29 +1959,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6617647058824" customWidth="1"/>
+    <col min="2" max="2" width="17.6583333333333" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.16176470588235" customWidth="1"/>
+    <col min="4" max="4" width="8.15833333333333" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="24.8308823529412" customWidth="1"/>
-    <col min="9" max="9" width="21.6617647058824" customWidth="1"/>
+    <col min="8" max="8" width="24.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.6583333333333" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="13.85" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9220,33 +9271,121 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="4:8">
-      <c r="D234" s="4"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-    </row>
-    <row r="235" spans="4:8">
-      <c r="D235" s="4"/>
-      <c r="E235" s="11"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="236" spans="4:8">
-      <c r="D236" s="4"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-    </row>
-    <row r="237" spans="4:8">
-      <c r="D237" s="4"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+    <row r="234" ht="13.85" spans="1:10">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>185</v>
+      </c>
+      <c r="C234" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="235" ht="13.85" spans="1:10">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>188</v>
+      </c>
+      <c r="C235" t="s">
+        <v>189</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="236" ht="13.85" spans="1:10">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>191</v>
+      </c>
+      <c r="C236" t="s">
+        <v>192</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="237" ht="13.85" spans="1:10">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>194</v>
+      </c>
+      <c r="C237" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="238" spans="4:8">
       <c r="D238" s="4"/>
@@ -9389,7 +9528,15 @@
       <c r="H257" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H257"/>
+  <autoFilter ref="A1:H257">
+    <extLst/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E234" r:id="rId1" display="929052333@qq.com" tooltip="mailto:929052333@qq.com"/>
+    <hyperlink ref="E236" r:id="rId2" display="1290232021@qq.com"/>
+    <hyperlink ref="E237" r:id="rId3" display="zhengziwen0822@163.com"/>
+    <hyperlink ref="E235" r:id="rId4" display="1148037565@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -9397,32 +9544,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.16176470588235" customWidth="1"/>
-    <col min="4" max="4" width="18.6617647058824" customWidth="1"/>
+    <col min="3" max="3" width="9.15833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.6583333333333" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="9" max="9" width="12.1617647058824" customWidth="1"/>
-    <col min="10" max="10" width="9.41176470588235"/>
+    <col min="9" max="9" width="12.1583333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.40833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="13.85" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9437,10 +9584,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
@@ -9451,29 +9598,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>C2&amp;"@"&amp;D2</f>
         <v>aooif@unsw.edu.au</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>51</v>
@@ -9484,29 +9631,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E61" si="0">C3&amp;"@"&amp;D3</f>
         <v>hyhsy@unsw.edu.au</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>52</v>
@@ -9517,29 +9664,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tjfxr@unsw.edu.au</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>53</v>
@@ -9550,29 +9697,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tzoyy@unsw.edu.au</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tzoyy@unsw.edu.au</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>54</v>
@@ -9583,29 +9730,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>kjkkx@unsw.edu.au</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>kjkkx@unsw.edu.au</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>55</v>
@@ -9616,29 +9763,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>trgje@unsw.edu.au</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>56</v>
@@ -9649,29 +9796,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mzzpu@unsw.edu.au</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>57</v>
@@ -9682,29 +9829,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ytsce@unsw.edu.au</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>58</v>
@@ -9715,29 +9862,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jluty@unsw.edu.au</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>59</v>
@@ -9748,29 +9895,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jfvyy@unsw.edu.au</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J11" s="6">
         <v>12344</v>
@@ -9781,29 +9928,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjqxo@unsw.edu.au</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>61</v>
@@ -9814,29 +9961,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>vkmlm@unsw.edu.au</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>vkmlm@unsw.edu.au</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>63</v>
@@ -9847,29 +9994,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jgxuq@unsw.edu.au</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>64</v>
@@ -9880,29 +10027,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dbpvo@unsw.edu.au</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>65</v>
@@ -9913,29 +10060,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ogari@unsw.edu.au</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>66</v>
@@ -9946,29 +10093,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>croav@unsw.edu.au</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>67</v>
@@ -9979,29 +10126,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>xjmmj@unsw.edu.au</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>68</v>
@@ -10012,29 +10159,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>abvgn@unsw.edu.au</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>69</v>
@@ -10045,29 +10192,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lpgyy@unsw.edu.au</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>71</v>
@@ -10078,29 +10225,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ygjby@unsw.edu.au</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>73</v>
@@ -10111,29 +10258,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>xqaqw@unsw.edu.au</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>xqaqw@unsw.edu.au</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>74</v>
@@ -10144,29 +10291,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lkiki@unsw.edu.au</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>75</v>
@@ -10177,29 +10324,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>psml@unsw.edu.au</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>77</v>
@@ -10210,29 +10357,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zesqr@unsw.edu.au</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>79</v>
@@ -10243,29 +10390,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>qwjgy@unsw.edu.au</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>80</v>
@@ -10276,29 +10423,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>bvljb@unsw.edu.au</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>81</v>
@@ -10309,29 +10456,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>rjpju@unsw.edu.au</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>82</v>
@@ -10342,29 +10489,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>liqqz@unsw.edu.au</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>liqqz@unsw.edu.au</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>83</v>
@@ -10375,29 +10522,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gmfzg@unsw.edu.au</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>84</v>
@@ -10408,29 +10555,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>achdi@unsw.edu.au</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>85</v>
@@ -10441,29 +10588,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>aowom@unsw.edu.au</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>86</v>
@@ -10474,29 +10621,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>vsxla@unsw.edu.au</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>87</v>
@@ -10507,29 +10654,29 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>pczae@unsw.edu.au</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>88</v>
@@ -10540,29 +10687,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>zgwrl@unsw.edu.au</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>89</v>
@@ -10573,29 +10720,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>uwnoi@unsw.edu.au</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>90</v>
@@ -10606,29 +10753,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ofjzr@unsw.edu.au</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>92</v>
@@ -10639,29 +10786,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dcrkv@unsw.edu.au</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>94</v>
@@ -10672,29 +10819,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>jnsrf@unsw.edu.au</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>95</v>
@@ -10705,29 +10852,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mqrci@unsw.edu.au</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>97</v>
@@ -10738,29 +10885,29 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>whjat@unsw.edu.au</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>99</v>
@@ -10771,29 +10918,29 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>oshgy@unsw.edu.au</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>100</v>
@@ -10804,29 +10951,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ggeqk@unsw.edu.au</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>101</v>
@@ -10837,29 +10984,29 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ncxdi@unsw.edu.au</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>102</v>
@@ -10870,29 +11017,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fjujf@unsw.edu.au</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>103</v>
@@ -10903,29 +11050,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dfddd@unsw.edu.au</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>104</v>
@@ -10936,29 +11083,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gftyu@unsw.edu.au</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>105</v>
@@ -10969,29 +11116,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsf ss@unsw.edu.au</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>106</v>
@@ -11002,29 +11149,29 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dsfsfs@unsw.edu.au</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>108</v>
@@ -11035,29 +11182,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>eydzs s@unsw.edu.au</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>110</v>
@@ -11068,29 +11215,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>dtyd @unsw.edu.au</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>111</v>
@@ -11101,29 +11248,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfd ss@unsw.edu.au</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>84</v>
@@ -11134,29 +11281,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdy rea@unsw.edu.au</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>85</v>
@@ -11167,29 +11314,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>kiuns@unsw.edu.au</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>86</v>
@@ -11200,29 +11347,29 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mxivj @unsw.edu.au</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>87</v>
@@ -11233,29 +11380,29 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>m  hs@unsw.edu.au</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>88</v>
@@ -11266,29 +11413,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>s ffdg@unsw.edu.au</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>89</v>
@@ -11299,29 +11446,29 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fgfffs@unsw.edu.au</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>90</v>
@@ -11332,29 +11479,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>d dg dh@unsw.edu.au</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>92</v>
@@ -11365,29 +11512,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>fdgds@unsw.edu.au</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>94</v>
@@ -11398,29 +11545,29 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ddbgf yb@unsw.edu.au</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>95</v>
@@ -11431,31 +11578,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -11463,28 +11610,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J63" s="7">
         <v>12345678</v>

--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21652" windowHeight="11175"/>
+    <workbookView windowWidth="26080" windowHeight="13280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HDR students" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HDR students'!$A$1:$H$257</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
   <si>
     <t>No</t>
   </si>
@@ -943,17 +930,26 @@
   </si>
   <si>
     <t>kunkun</t>
+  </si>
+  <si>
+    <t>z99</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -982,7 +978,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,7 +986,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,7 +1014,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,40 +1082,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,7 +1091,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,58 +1113,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,13 +1142,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,13 +1196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,25 +1220,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,19 +1274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,73 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,6 +1299,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,17 +1356,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,30 +1370,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,15 +1406,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1457,155 +1414,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1620,59 +1616,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1959,29 +1956,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.6617647058824" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.15833333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.16176470588235" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="24.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="21.6583333333333" customWidth="1"/>
+    <col min="8" max="8" width="24.8308823529412" customWidth="1"/>
+    <col min="9" max="9" width="21.6617647058824" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.85" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9255,7 +9252,7 @@
       <c r="D233" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F233" s="3" t="s">
@@ -9271,7 +9268,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" ht="13.85" spans="1:10">
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9284,7 +9281,7 @@
       <c r="D234" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E234" s="12" t="s">
+      <c r="E234" s="13" t="s">
         <v>187</v>
       </c>
       <c r="F234" s="3" t="s">
@@ -9300,7 +9297,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" ht="13.85" spans="1:10">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9313,7 +9310,7 @@
       <c r="D235" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E235" s="13" t="s">
+      <c r="E235" s="14" t="s">
         <v>190</v>
       </c>
       <c r="F235" s="3" t="s">
@@ -9329,7 +9326,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="236" ht="13.85" spans="1:10">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9342,7 +9339,7 @@
       <c r="D236" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E236" s="12" t="s">
+      <c r="E236" s="13" t="s">
         <v>193</v>
       </c>
       <c r="F236" s="3" t="s">
@@ -9358,7 +9355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="237" ht="13.85" spans="1:10">
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9371,7 +9368,7 @@
       <c r="D237" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E237" s="13" t="s">
+      <c r="E237" s="14" t="s">
         <v>196</v>
       </c>
       <c r="F237" s="3" t="s">
@@ -9528,14 +9525,13 @@
       <c r="H257" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H257">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H257"/>
   <hyperlinks>
     <hyperlink ref="E234" r:id="rId1" display="929052333@qq.com" tooltip="mailto:929052333@qq.com"/>
     <hyperlink ref="E236" r:id="rId2" display="1290232021@qq.com"/>
     <hyperlink ref="E237" r:id="rId3" display="zhengziwen0822@163.com"/>
     <hyperlink ref="E235" r:id="rId4" display="1148037565@qq.com"/>
+    <hyperlink ref="E233" r:id="rId5" display="wangweiyi6191@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -9544,24 +9540,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
   <cols>
-    <col min="3" max="3" width="9.15833333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.6583333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.16176470588235" customWidth="1"/>
+    <col min="4" max="4" width="18.6617647058824" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="9" max="9" width="12.1583333333333" customWidth="1"/>
-    <col min="10" max="10" width="9.40833333333333"/>
+    <col min="9" max="9" width="12.1617647058824" customWidth="1"/>
+    <col min="10" max="10" width="9.41176470588235"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.85" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11635,6 +11631,38 @@
       </c>
       <c r="J63" s="7">
         <v>12345678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" t="s">
+        <v>306</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -938,7 +938,7 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Administrator</t>
   </si>
 </sst>
 </file>
@@ -9544,8 +9544,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:J57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>

--- a/backend/data/CSE Active HDR candidates staff details 210624.xlsx
+++ b/backend/data/CSE Active HDR candidates staff details 210624.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
   <si>
     <t>No</t>
   </si>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t>Administrator</t>
+  </si>
+  <si>
+    <t>z7</t>
+  </si>
+  <si>
+    <t>non_cse</t>
+  </si>
+  <si>
+    <t>7@qq.com</t>
   </si>
 </sst>
 </file>
@@ -947,9 +956,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -992,10 +1001,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,15 +1024,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,7 +1045,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1055,6 +1057,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,31 +1084,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,6 +1106,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1120,8 +1128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,25 +1151,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,13 +1175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1211,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,109 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +1362,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1404,17 +1422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1447,103 +1454,105 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,28 +1561,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,22 +1591,22 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,11 +1621,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -2006,7 +2015,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4039,7 +4048,7 @@
         <v>14</v>
       </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7762,7 +7771,7 @@
         <v>14</v>
       </c>
       <c r="I185" s="3"/>
-      <c r="J185" s="9" t="s">
+      <c r="J185" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9211,19 +9220,19 @@
       </c>
     </row>
     <row r="232" spans="1:10">
-      <c r="A232" s="10">
+      <c r="A232" s="11">
         <v>231</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="C232" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E232" s="11" t="s">
+      <c r="E232" s="12" t="s">
         <v>180</v>
       </c>
       <c r="F232" s="3" t="s">
@@ -9252,7 +9261,7 @@
       <c r="D233" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E233" s="12" t="s">
+      <c r="E233" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F233" s="3" t="s">
@@ -9386,140 +9395,140 @@
     </row>
     <row r="238" spans="4:8">
       <c r="D238" s="4"/>
-      <c r="E238" s="11"/>
+      <c r="E238" s="12"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="4:8">
       <c r="D239" s="4"/>
-      <c r="E239" s="11"/>
+      <c r="E239" s="12"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="4:8">
       <c r="D240" s="4"/>
-      <c r="E240" s="11"/>
+      <c r="E240" s="12"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="4:8">
       <c r="D241" s="4"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="12"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="4:8">
       <c r="D242" s="4"/>
-      <c r="E242" s="11"/>
+      <c r="E242" s="12"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
     <row r="243" spans="4:8">
       <c r="D243" s="4"/>
-      <c r="E243" s="11"/>
+      <c r="E243" s="12"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="4:8">
       <c r="D244" s="4"/>
-      <c r="E244" s="11"/>
+      <c r="E244" s="12"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="4:8">
       <c r="D245" s="4"/>
-      <c r="E245" s="11"/>
+      <c r="E245" s="12"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
     </row>
     <row r="246" spans="4:8">
       <c r="D246" s="4"/>
-      <c r="E246" s="11"/>
+      <c r="E246" s="12"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
     </row>
     <row r="247" spans="4:8">
       <c r="D247" s="4"/>
-      <c r="E247" s="11"/>
+      <c r="E247" s="12"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="4:8">
       <c r="D248" s="4"/>
-      <c r="E248" s="11"/>
+      <c r="E248" s="12"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
     <row r="249" spans="4:8">
       <c r="D249" s="4"/>
-      <c r="E249" s="11"/>
+      <c r="E249" s="12"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="4:8">
       <c r="D250" s="4"/>
-      <c r="E250" s="11"/>
+      <c r="E250" s="12"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="4:8">
       <c r="D251" s="4"/>
-      <c r="E251" s="11"/>
+      <c r="E251" s="12"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="4:8">
       <c r="D252" s="4"/>
-      <c r="E252" s="11"/>
+      <c r="E252" s="12"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
     <row r="253" spans="4:8">
       <c r="D253" s="4"/>
-      <c r="E253" s="11"/>
+      <c r="E253" s="12"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="4:8">
       <c r="D254" s="4"/>
-      <c r="E254" s="11"/>
+      <c r="E254" s="12"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="4:8">
       <c r="D255" s="4"/>
-      <c r="E255" s="11"/>
+      <c r="E255" s="12"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="4:8">
       <c r="D256" s="4"/>
-      <c r="E256" s="11"/>
+      <c r="E256" s="12"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="4:8">
       <c r="D257" s="4"/>
-      <c r="E257" s="11"/>
+      <c r="E257" s="12"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -9542,10 +9551,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
@@ -11665,7 +11674,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" t="s">
+        <v>297</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J65" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E65" r:id="rId1" display="7@qq.com" tooltip="mailto:7@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
